--- a/filesToProcess/CRC_Common_Data_Submissin_for_January_Cornerblock_Services_Ltd___CORNERBLOCK_SERVICES_LIMITED-2AFL101532-17-02-2023.xlsx
+++ b/filesToProcess/CRC_Common_Data_Submissin_for_January_Cornerblock_Services_Ltd___CORNERBLOCK_SERVICES_LIMITED-2AFL101532-17-02-2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mainstreetcapltd-my.sharepoint.com/personal/taiwo_idowu_cornerblockservices_com/Documents/Documents/File Submission crc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iyedeisaiah/Desktop/allfiles2/projects/crc_files_review/filesToProcess/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{01DB7187-BED0-47D8-A7D8-AA1A326ED8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B13D9BB1-FCED-4D2B-8F3D-5463E0F864B3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D85702-0A2F-9B49-989C-E1075E11A7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="801" xr2:uid="{A5E551D8-7D3B-4334-9889-D974ADDC6D48}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28600" windowHeight="16680" tabRatio="801" activeTab="5" xr2:uid="{A5E551D8-7D3B-4334-9889-D974ADDC6D48}"/>
   </bookViews>
   <sheets>
     <sheet name="Individual Borrower" sheetId="1" r:id="rId1"/>
@@ -3444,7 +3444,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0000000000"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4696,6 +4696,7 @@
     <xf numFmtId="49" fontId="31" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="33" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="33" fillId="0" borderId="34" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4732,7 +4733,6 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
@@ -6843,59 +6843,59 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AT17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7890625" style="145" customWidth="1"/>
-    <col min="2" max="2" width="13.5234375" style="145" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.3125" style="145" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" style="145" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="145" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="145" customWidth="1"/>
     <col min="4" max="4" width="28" style="145" customWidth="1"/>
-    <col min="5" max="5" width="24.89453125" style="145" customWidth="1"/>
-    <col min="6" max="6" width="18.41796875" style="147" customWidth="1"/>
-    <col min="7" max="7" width="25.3125" style="145" customWidth="1"/>
-    <col min="8" max="8" width="22.5234375" style="145" customWidth="1"/>
-    <col min="9" max="9" width="22.3125" style="145" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" style="145" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="147" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="145" customWidth="1"/>
+    <col min="8" max="8" width="22.5" style="145" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" style="145" customWidth="1"/>
     <col min="10" max="10" width="21" style="145" customWidth="1"/>
-    <col min="11" max="11" width="12.68359375" style="145" customWidth="1"/>
-    <col min="12" max="12" width="13.3125" style="145" customWidth="1"/>
-    <col min="13" max="13" width="14.5234375" style="145" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.1015625" style="145" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="145" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" style="145" customWidth="1"/>
+    <col min="13" max="13" width="14.5" style="145" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.1640625" style="145" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="24" style="145" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.89453125" style="145" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.5234375" style="145" customWidth="1"/>
-    <col min="19" max="19" width="17.5234375" style="145" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.89453125" style="145" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.68359375" style="145" customWidth="1"/>
-    <col min="22" max="22" width="19.89453125" style="145" customWidth="1"/>
+    <col min="17" max="17" width="18.83203125" style="145" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.5" style="145" customWidth="1"/>
+    <col min="19" max="19" width="17.5" style="145" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.83203125" style="145" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.6640625" style="145" customWidth="1"/>
+    <col min="22" max="22" width="19.83203125" style="145" customWidth="1"/>
     <col min="23" max="23" width="17" style="145" customWidth="1"/>
-    <col min="24" max="24" width="21.89453125" style="145" customWidth="1"/>
-    <col min="25" max="25" width="20.3125" style="145" customWidth="1"/>
-    <col min="26" max="26" width="25.1015625" style="145" customWidth="1"/>
-    <col min="27" max="27" width="25.89453125" style="145" customWidth="1"/>
-    <col min="28" max="28" width="19.1015625" style="145" customWidth="1"/>
+    <col min="24" max="24" width="21.83203125" style="145" customWidth="1"/>
+    <col min="25" max="25" width="20.33203125" style="145" customWidth="1"/>
+    <col min="26" max="26" width="25.1640625" style="145" customWidth="1"/>
+    <col min="27" max="27" width="25.83203125" style="145" customWidth="1"/>
+    <col min="28" max="28" width="19.1640625" style="145" customWidth="1"/>
     <col min="29" max="29" width="25" style="145" customWidth="1"/>
     <col min="30" max="30" width="26" style="145" customWidth="1"/>
     <col min="31" max="31" width="29" style="145" customWidth="1"/>
-    <col min="32" max="32" width="16.41796875" style="145" customWidth="1"/>
-    <col min="33" max="33" width="15.5234375" style="145" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20.1015625" style="145" customWidth="1"/>
-    <col min="35" max="35" width="8.68359375" style="145" customWidth="1"/>
-    <col min="36" max="36" width="13.89453125" style="145" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="20.68359375" style="145" customWidth="1"/>
-    <col min="39" max="40" width="26.41796875" style="145" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="30.5234375" style="145" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="25.1015625" style="145" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="27.5234375" style="145" customWidth="1"/>
-    <col min="44" max="44" width="23.3125" style="145" customWidth="1"/>
-    <col min="45" max="45" width="19.89453125" style="145" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="23.1015625" style="145" bestFit="1" customWidth="1"/>
-    <col min="47" max="16384" width="8.7890625" style="145"/>
+    <col min="32" max="32" width="16.5" style="145" customWidth="1"/>
+    <col min="33" max="33" width="15.5" style="145" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.1640625" style="145" customWidth="1"/>
+    <col min="35" max="35" width="8.6640625" style="145" customWidth="1"/>
+    <col min="36" max="36" width="13.83203125" style="145" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="20.6640625" style="145" customWidth="1"/>
+    <col min="39" max="40" width="26.5" style="145" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="30.5" style="145" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="25.1640625" style="145" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="27.5" style="145" customWidth="1"/>
+    <col min="44" max="44" width="23.33203125" style="145" customWidth="1"/>
+    <col min="45" max="45" width="19.83203125" style="145" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="23.1640625" style="145" bestFit="1" customWidth="1"/>
+    <col min="47" max="16384" width="8.83203125" style="145"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="149" customFormat="1" ht="39" customHeight="1">
+    <row r="1" spans="1:46" s="149" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="132" t="s">
         <v>0</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="142" t="s">
         <v>990</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="142" t="s">
         <v>1112</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="146" t="s">
         <v>1007</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="146" t="s">
         <v>1014</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" s="142" t="s">
         <v>1022</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" s="142" t="s">
         <v>1032</v>
       </c>
@@ -7317,7 +7317,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="142" t="s">
         <v>1039</v>
       </c>
@@ -7364,7 +7364,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" s="146" t="s">
         <v>1050</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" s="142" t="s">
         <v>1061</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" s="146" t="s">
         <v>1063</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:46" s="143" customFormat="1">
+    <row r="12" spans="1:46" s="143" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="146" t="s">
         <v>1069</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="13" spans="1:46" customFormat="1" ht="14.4">
+    <row r="13" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="146" t="s">
         <v>1007</v>
       </c>
@@ -7631,7 +7631,7 @@
       <c r="AS13" s="143"/>
       <c r="AT13" s="143"/>
     </row>
-    <row r="14" spans="1:46">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" s="180" t="s">
         <v>1079</v>
       </c>
@@ -7678,7 +7678,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:46">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" s="180" t="s">
         <v>1086</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:46">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" s="146" t="s">
         <v>1094</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="142"/>
       <c r="B17" s="142"/>
       <c r="I17" s="143"/>
@@ -7780,6 +7780,7 @@
       <c r="O17" s="148"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI201" xr:uid="{5432E0BA-2587-4CA7-9378-43CDAF0F72BF}">
       <formula1>Title</formula1>
@@ -7820,32 +7821,32 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.1015625" style="103" customWidth="1"/>
-    <col min="2" max="2" width="50.3125" style="103" customWidth="1"/>
-    <col min="3" max="3" width="24.3125" style="103" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" style="103" customWidth="1"/>
+    <col min="2" max="2" width="50.33203125" style="103" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="103" customWidth="1"/>
     <col min="4" max="4" width="28" style="103" customWidth="1"/>
-    <col min="5" max="5" width="24.89453125" style="104" customWidth="1"/>
-    <col min="6" max="6" width="22.5234375" style="103" customWidth="1"/>
-    <col min="7" max="7" width="25.3125" style="103" customWidth="1"/>
-    <col min="8" max="8" width="35.47265625" style="103" customWidth="1"/>
-    <col min="9" max="9" width="22.3125" style="103" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" style="104" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="103" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="103" customWidth="1"/>
+    <col min="8" max="8" width="35.5" style="103" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" style="103" customWidth="1"/>
     <col min="10" max="10" width="21" style="103" customWidth="1"/>
-    <col min="11" max="11" width="19.5234375" style="103" customWidth="1"/>
-    <col min="12" max="12" width="21.3125" style="103" customWidth="1"/>
-    <col min="13" max="13" width="22.89453125" style="103" customWidth="1"/>
+    <col min="11" max="11" width="19.5" style="103" customWidth="1"/>
+    <col min="12" max="12" width="21.33203125" style="103" customWidth="1"/>
+    <col min="13" max="13" width="22.83203125" style="103" customWidth="1"/>
     <col min="14" max="14" width="26" style="103" customWidth="1"/>
-    <col min="15" max="15" width="26.89453125" style="103" customWidth="1"/>
+    <col min="15" max="15" width="26.83203125" style="103" customWidth="1"/>
     <col min="16" max="16" width="24" style="103" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.89453125" style="103" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.5234375" style="103" customWidth="1"/>
-    <col min="19" max="19" width="17.5234375" style="103" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.89453125" style="103" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.7890625" style="103"/>
+    <col min="17" max="17" width="18.83203125" style="103" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.5" style="103" customWidth="1"/>
+    <col min="19" max="19" width="17.5" style="103" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.83203125" style="103" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.83203125" style="103"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="102" customFormat="1" ht="39" customHeight="1">
+    <row r="1" spans="1:20" s="102" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
         <v>989</v>
       </c>
@@ -7907,7 +7908,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="14.4">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="103" t="s">
         <v>1027</v>
       </c>
@@ -7936,7 +7937,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="14.4">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="103" t="s">
         <v>1101</v>
       </c>
@@ -7966,6 +7967,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L201 R2:R201" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>Country</formula1>
@@ -7994,41 +7996,40 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.89453125" style="125" customWidth="1"/>
-    <col min="2" max="2" width="22.41796875" style="125" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" style="125" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="125" customWidth="1"/>
     <col min="3" max="3" width="22" style="125" customWidth="1"/>
-    <col min="4" max="4" width="22.68359375" style="126" customWidth="1"/>
-    <col min="5" max="5" width="29.5234375" style="126" customWidth="1"/>
-    <col min="6" max="6" width="27.68359375" style="125" customWidth="1"/>
-    <col min="7" max="7" width="28.3125" style="125" customWidth="1"/>
-    <col min="8" max="8" width="24.41796875" style="125" customWidth="1"/>
-    <col min="9" max="9" width="19.89453125" style="125" customWidth="1"/>
-    <col min="10" max="10" width="15.1015625" style="125" customWidth="1"/>
-    <col min="11" max="11" width="15.89453125" style="125" customWidth="1"/>
-    <col min="12" max="12" width="23.5234375" style="125" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="126" customWidth="1"/>
+    <col min="5" max="5" width="29.5" style="126" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="125" customWidth="1"/>
+    <col min="7" max="7" width="28.33203125" style="125" customWidth="1"/>
+    <col min="8" max="8" width="24.5" style="125" customWidth="1"/>
+    <col min="9" max="9" width="19.83203125" style="125" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="125" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" style="125" customWidth="1"/>
+    <col min="12" max="12" width="23.5" style="125" customWidth="1"/>
     <col min="13" max="13" width="32" style="125" customWidth="1"/>
     <col min="14" max="14" width="21" style="125" customWidth="1"/>
-    <col min="15" max="15" width="29.41796875" style="125" customWidth="1"/>
+    <col min="15" max="15" width="29.5" style="125" customWidth="1"/>
     <col min="16" max="16" width="23" style="126" customWidth="1"/>
     <col min="17" max="17" width="24" style="125" customWidth="1"/>
-    <col min="18" max="18" width="18.3125" style="126" customWidth="1"/>
-    <col min="19" max="19" width="26.68359375" style="125" customWidth="1"/>
-    <col min="20" max="20" width="19.41796875" style="125" customWidth="1"/>
-    <col min="21" max="21" width="19.5234375" style="125" customWidth="1"/>
-    <col min="22" max="22" width="18.5234375" style="125" customWidth="1"/>
+    <col min="18" max="18" width="18.33203125" style="126" customWidth="1"/>
+    <col min="19" max="19" width="26.6640625" style="125" customWidth="1"/>
+    <col min="20" max="21" width="19.5" style="125" customWidth="1"/>
+    <col min="22" max="22" width="18.5" style="125" customWidth="1"/>
     <col min="23" max="23" width="22" style="125" customWidth="1"/>
-    <col min="24" max="24" width="25.5234375" style="125" customWidth="1"/>
-    <col min="25" max="25" width="42.3125" style="125" customWidth="1"/>
+    <col min="24" max="24" width="25.5" style="125" customWidth="1"/>
+    <col min="25" max="25" width="42.33203125" style="125" customWidth="1"/>
     <col min="26" max="26" width="31" style="125" customWidth="1"/>
     <col min="27" max="27" width="22" style="125" customWidth="1"/>
-    <col min="28" max="28" width="24.68359375" style="125" customWidth="1"/>
-    <col min="29" max="29" width="19.41796875" style="125" customWidth="1"/>
-    <col min="30" max="16384" width="8.7890625" style="125"/>
+    <col min="28" max="28" width="24.6640625" style="125" customWidth="1"/>
+    <col min="29" max="29" width="19.5" style="125" customWidth="1"/>
+    <col min="30" max="16384" width="8.83203125" style="125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="129" customFormat="1" ht="40.950000000000003" customHeight="1">
+    <row r="1" spans="1:29" s="129" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="156" t="s">
         <v>47</v>
       </c>
@@ -8117,7 +8118,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="124" t="s">
         <v>990</v>
       </c>
@@ -8176,7 +8177,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="124" t="s">
         <v>1112</v>
       </c>
@@ -8235,7 +8236,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="128" t="s">
         <v>1007</v>
       </c>
@@ -8294,7 +8295,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="128" t="s">
         <v>1014</v>
       </c>
@@ -8353,7 +8354,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="124" t="s">
         <v>1022</v>
       </c>
@@ -8407,7 +8408,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="124" t="s">
         <v>1032</v>
       </c>
@@ -8466,7 +8467,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="124" t="s">
         <v>1039</v>
       </c>
@@ -8523,7 +8524,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="128" t="s">
         <v>1050</v>
       </c>
@@ -8582,7 +8583,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="124" t="s">
         <v>1061</v>
       </c>
@@ -8604,7 +8605,7 @@
       <c r="G10" s="120">
         <v>6000000</v>
       </c>
-      <c r="H10" s="195">
+      <c r="H10" s="183">
         <v>4816409</v>
       </c>
       <c r="I10" s="120">
@@ -8641,7 +8642,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="128" t="s">
         <v>1063</v>
       </c>
@@ -8700,7 +8701,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="128" t="s">
         <v>1069</v>
       </c>
@@ -8752,7 +8753,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="128" t="s">
         <v>1007</v>
       </c>
@@ -8811,7 +8812,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="171" t="s">
         <v>1079</v>
       </c>
@@ -8870,7 +8871,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="171" t="s">
         <v>1086</v>
       </c>
@@ -8927,7 +8928,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="177" t="s">
         <v>1094</v>
       </c>
@@ -8949,7 +8950,7 @@
       <c r="G16" s="179">
         <v>3000000</v>
       </c>
-      <c r="H16" s="195">
+      <c r="H16" s="183">
         <v>2812431</v>
       </c>
       <c r="I16" s="175">
@@ -8984,7 +8985,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="177" t="s">
         <v>1104</v>
       </c>
@@ -9043,7 +9044,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="124" t="s">
         <v>1032</v>
       </c>
@@ -9066,7 +9067,7 @@
         <v>6000000</v>
       </c>
       <c r="H18" s="120"/>
-      <c r="I18" s="195">
+      <c r="I18" s="183">
         <v>680133</v>
       </c>
       <c r="J18" s="125" t="s">
@@ -9095,71 +9096,72 @@
         <v>725</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F19" s="120"/>
       <c r="G19" s="120"/>
       <c r="H19" s="120"/>
       <c r="Q19" s="120"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F20" s="120"/>
       <c r="G20" s="120"/>
       <c r="H20" s="120"/>
       <c r="Q20" s="120"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F21" s="120"/>
       <c r="G21" s="120"/>
       <c r="H21" s="120"/>
       <c r="Q21" s="120"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F22" s="120"/>
       <c r="G22" s="120"/>
       <c r="H22" s="120"/>
       <c r="Q22" s="120"/>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F23" s="120"/>
       <c r="G23" s="120"/>
       <c r="H23" s="120"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F24" s="120"/>
       <c r="G24" s="120"/>
       <c r="H24" s="120"/>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F25" s="120"/>
       <c r="G25" s="120"/>
       <c r="H25" s="120"/>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F26" s="120"/>
       <c r="G26" s="120"/>
       <c r="H26" s="120"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F27" s="120"/>
       <c r="G27" s="120"/>
       <c r="H27" s="120"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F28" s="120"/>
       <c r="G28" s="120"/>
       <c r="H28" s="120"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F29" s="120"/>
       <c r="G29" s="120"/>
       <c r="H29" s="120"/>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F30" s="120"/>
       <c r="G30" s="120"/>
       <c r="H30" s="120"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X201" xr:uid="{63C0C9BF-57AB-41F6-A894-5226C10D64F2}">
       <formula1>CollateralType</formula1>
@@ -9200,36 +9202,36 @@
       <selection activeCell="C248" sqref="C248"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.68359375" customWidth="1"/>
-    <col min="3" max="3" width="42.1015625" customWidth="1"/>
-    <col min="4" max="4" width="38.89453125" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.1640625" customWidth="1"/>
+    <col min="4" max="4" width="38.83203125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="45" customWidth="1"/>
-    <col min="8" max="8" width="16.89453125" customWidth="1"/>
-    <col min="9" max="9" width="35.89453125" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="9" max="9" width="35.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.7" thickBot="1">
+    <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="185" t="s">
+      <c r="B1" s="186" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="186"/>
+      <c r="C1" s="187"/>
       <c r="D1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="183" t="s">
+      <c r="E1" s="184" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="184"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.7" thickBot="1">
+      <c r="F1" s="185"/>
+    </row>
+    <row r="2" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="14.7" thickBot="1">
+    <row r="3" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>79</v>
       </c>
@@ -9243,7 +9245,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.7" thickBot="1">
+    <row r="4" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>46</v>
       </c>
@@ -9257,7 +9259,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.7" thickBot="1">
+    <row r="5" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>86</v>
       </c>
@@ -9271,7 +9273,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.7" thickBot="1">
+    <row r="6" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>90</v>
       </c>
@@ -9285,7 +9287,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.7" thickBot="1">
+    <row r="7" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>94</v>
       </c>
@@ -9299,7 +9301,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.7" thickBot="1">
+    <row r="8" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>98</v>
       </c>
@@ -9313,7 +9315,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.7" thickBot="1">
+    <row r="9" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>102</v>
       </c>
@@ -9327,7 +9329,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.7" thickBot="1">
+    <row r="10" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>106</v>
       </c>
@@ -9341,7 +9343,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.7" thickBot="1">
+    <row r="11" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>110</v>
       </c>
@@ -9355,7 +9357,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.7" thickBot="1">
+    <row r="12" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>114</v>
       </c>
@@ -9369,7 +9371,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.7" thickBot="1">
+    <row r="13" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>118</v>
       </c>
@@ -9383,7 +9385,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.7" thickBot="1">
+    <row r="14" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>122</v>
       </c>
@@ -9397,7 +9399,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.7" thickBot="1">
+    <row r="15" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>126</v>
       </c>
@@ -9411,7 +9413,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.7" thickBot="1">
+    <row r="16" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>130</v>
       </c>
@@ -9425,7 +9427,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="14.7" thickBot="1">
+    <row r="17" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>134</v>
       </c>
@@ -9439,7 +9441,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="14.7" thickBot="1">
+    <row r="18" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>138</v>
       </c>
@@ -9453,7 +9455,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="14.7" thickBot="1">
+    <row r="19" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
         <v>142</v>
       </c>
@@ -9467,7 +9469,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="14.7" thickBot="1">
+    <row r="20" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>146</v>
       </c>
@@ -9481,7 +9483,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="14.7" thickBot="1">
+    <row r="21" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
         <v>150</v>
       </c>
@@ -9495,7 +9497,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="14.7" thickBot="1">
+    <row r="22" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>154</v>
       </c>
@@ -9509,7 +9511,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="14.7" thickBot="1">
+    <row r="23" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
         <v>158</v>
       </c>
@@ -9523,7 +9525,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="14.7" thickBot="1">
+    <row r="24" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>162</v>
       </c>
@@ -9537,7 +9539,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="14.7" thickBot="1">
+    <row r="25" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>166</v>
       </c>
@@ -9551,7 +9553,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="14.7" thickBot="1">
+    <row r="26" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>170</v>
       </c>
@@ -9565,7 +9567,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="14.7" thickBot="1">
+    <row r="27" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
         <v>174</v>
       </c>
@@ -9579,7 +9581,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="14.7" thickBot="1">
+    <row r="28" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
         <v>178</v>
       </c>
@@ -9593,7 +9595,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="14.7" thickBot="1">
+    <row r="29" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
         <v>182</v>
       </c>
@@ -9607,7 +9609,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="14.7" thickBot="1">
+    <row r="30" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
         <v>186</v>
       </c>
@@ -9621,7 +9623,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="14.7" thickBot="1">
+    <row r="31" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
         <v>190</v>
       </c>
@@ -9635,7 +9637,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="9" t="s">
         <v>194</v>
       </c>
@@ -9643,7 +9645,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B33" s="9" t="s">
         <v>196</v>
       </c>
@@ -9651,7 +9653,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B34" s="9" t="s">
         <v>198</v>
       </c>
@@ -9659,7 +9661,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B35" s="9" t="s">
         <v>200</v>
       </c>
@@ -9667,7 +9669,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B36" s="9" t="s">
         <v>202</v>
       </c>
@@ -9675,7 +9677,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B37" s="9" t="s">
         <v>204</v>
       </c>
@@ -9683,7 +9685,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B38" s="9" t="s">
         <v>206</v>
       </c>
@@ -9691,7 +9693,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B39" s="9" t="s">
         <v>208</v>
       </c>
@@ -9699,7 +9701,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B40" s="9" t="s">
         <v>210</v>
       </c>
@@ -9711,7 +9713,7 @@
       </c>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B41" s="13"/>
       <c r="C41" s="14"/>
       <c r="H41" s="5" t="s">
@@ -9721,7 +9723,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="14.7" thickBot="1">
+    <row r="42" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H42" s="9" t="s">
         <v>213</v>
       </c>
@@ -9729,7 +9731,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="14.7" thickBot="1">
+    <row r="43" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>75</v>
       </c>
@@ -9748,7 +9750,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B44" s="5" t="s">
         <v>79</v>
       </c>
@@ -9768,7 +9770,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B45" s="9" t="s">
         <v>213</v>
       </c>
@@ -9788,7 +9790,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B46" s="9" t="s">
         <v>215</v>
       </c>
@@ -9808,7 +9810,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B47" s="9" t="s">
         <v>217</v>
       </c>
@@ -9828,7 +9830,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B48" s="9" t="s">
         <v>221</v>
       </c>
@@ -9848,7 +9850,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" s="9" t="s">
         <v>225</v>
       </c>
@@ -9868,7 +9870,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="9" t="s">
         <v>229</v>
       </c>
@@ -9888,7 +9890,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="9" t="s">
         <v>233</v>
       </c>
@@ -9908,7 +9910,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="9" t="s">
         <v>237</v>
       </c>
@@ -9928,7 +9930,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="9" t="s">
         <v>241</v>
       </c>
@@ -9948,7 +9950,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="9" t="s">
         <v>245</v>
       </c>
@@ -9968,7 +9970,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="9" t="s">
         <v>249</v>
       </c>
@@ -9988,7 +9990,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="9" t="s">
         <v>253</v>
       </c>
@@ -10008,7 +10010,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="57" spans="2:9">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="9" t="s">
         <v>257</v>
       </c>
@@ -10028,7 +10030,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="58" spans="2:9">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="9" t="s">
         <v>261</v>
       </c>
@@ -10048,7 +10050,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="59" spans="2:9">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" s="9" t="s">
         <v>265</v>
       </c>
@@ -10068,7 +10070,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="60" spans="2:9">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B60" s="9" t="s">
         <v>269</v>
       </c>
@@ -10088,7 +10090,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="61" spans="2:9">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B61" s="9" t="s">
         <v>273</v>
       </c>
@@ -10108,7 +10110,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="62" spans="2:9">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B62" s="9" t="s">
         <v>277</v>
       </c>
@@ -10128,7 +10130,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="63" spans="2:9">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B63" s="9" t="s">
         <v>281</v>
       </c>
@@ -10148,7 +10150,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="64" spans="2:9">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" s="9" t="s">
         <v>285</v>
       </c>
@@ -10168,7 +10170,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="65" spans="2:9">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B65" s="9" t="s">
         <v>289</v>
       </c>
@@ -10188,7 +10190,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="66" spans="2:9">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B66" s="9" t="s">
         <v>293</v>
       </c>
@@ -10208,7 +10210,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="67" spans="2:9">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67" s="9" t="s">
         <v>297</v>
       </c>
@@ -10228,7 +10230,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="68" spans="2:9">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B68" s="9" t="s">
         <v>301</v>
       </c>
@@ -10248,7 +10250,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="69" spans="2:9">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B69" s="9" t="s">
         <v>305</v>
       </c>
@@ -10268,7 +10270,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="70" spans="2:9">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B70" s="9" t="s">
         <v>309</v>
       </c>
@@ -10288,7 +10290,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="71" spans="2:9">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B71" s="9" t="s">
         <v>313</v>
       </c>
@@ -10308,7 +10310,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="72" spans="2:9">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B72" s="9" t="s">
         <v>317</v>
       </c>
@@ -10328,7 +10330,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="73" spans="2:9">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B73" s="9" t="s">
         <v>321</v>
       </c>
@@ -10348,7 +10350,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="74" spans="2:9">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B74" s="9" t="s">
         <v>325</v>
       </c>
@@ -10368,7 +10370,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="75" spans="2:9">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B75" s="9" t="s">
         <v>329</v>
       </c>
@@ -10388,7 +10390,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="76" spans="2:9">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B76" s="9" t="s">
         <v>333</v>
       </c>
@@ -10408,7 +10410,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="77" spans="2:9">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B77" s="9" t="s">
         <v>337</v>
       </c>
@@ -10428,7 +10430,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="78" spans="2:9">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B78" s="9" t="s">
         <v>341</v>
       </c>
@@ -10448,7 +10450,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="79" spans="2:9">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B79" s="9" t="s">
         <v>345</v>
       </c>
@@ -10468,7 +10470,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="80" spans="2:9">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B80" s="9" t="s">
         <v>349</v>
       </c>
@@ -10488,7 +10490,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="81" spans="2:9">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B81" s="9" t="s">
         <v>353</v>
       </c>
@@ -10508,7 +10510,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="82" spans="2:9">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B82" s="9" t="s">
         <v>357</v>
       </c>
@@ -10528,7 +10530,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="83" spans="2:9">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B83" s="9" t="s">
         <v>361</v>
       </c>
@@ -10548,7 +10550,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="84" spans="2:9">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B84" s="9" t="s">
         <v>365</v>
       </c>
@@ -10568,7 +10570,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="85" spans="2:9">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B85" s="9" t="s">
         <v>365</v>
       </c>
@@ -10588,7 +10590,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="86" spans="2:9">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B86" s="9" t="s">
         <v>372</v>
       </c>
@@ -10608,7 +10610,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="87" spans="2:9">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B87" s="9" t="s">
         <v>376</v>
       </c>
@@ -10628,7 +10630,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="88" spans="2:9">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B88" s="9" t="s">
         <v>380</v>
       </c>
@@ -10648,7 +10650,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="89" spans="2:9">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B89" s="9" t="s">
         <v>384</v>
       </c>
@@ -10668,7 +10670,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="90" spans="2:9">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B90" s="9" t="s">
         <v>388</v>
       </c>
@@ -10688,7 +10690,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="91" spans="2:9">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B91" s="9" t="s">
         <v>392</v>
       </c>
@@ -10708,7 +10710,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="92" spans="2:9">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B92" s="9" t="s">
         <v>396</v>
       </c>
@@ -10728,7 +10730,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="93" spans="2:9">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B93" s="9" t="s">
         <v>399</v>
       </c>
@@ -10748,7 +10750,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="94" spans="2:9">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B94" s="9" t="s">
         <v>403</v>
       </c>
@@ -10768,7 +10770,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="95" spans="2:9">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B95" s="9" t="s">
         <v>407</v>
       </c>
@@ -10788,7 +10790,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="96" spans="2:9">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B96" s="9" t="s">
         <v>411</v>
       </c>
@@ -10808,7 +10810,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="97" spans="2:9">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B97" s="9" t="s">
         <v>415</v>
       </c>
@@ -10828,7 +10830,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="98" spans="2:9">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B98" s="9" t="s">
         <v>419</v>
       </c>
@@ -10848,7 +10850,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="99" spans="2:9">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B99" s="9" t="s">
         <v>423</v>
       </c>
@@ -10868,7 +10870,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="100" spans="2:9">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B100" s="9" t="s">
         <v>427</v>
       </c>
@@ -10888,7 +10890,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="101" spans="2:9">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B101" s="9" t="s">
         <v>431</v>
       </c>
@@ -10908,7 +10910,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="102" spans="2:9">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B102" s="9" t="s">
         <v>435</v>
       </c>
@@ -10928,7 +10930,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="103" spans="2:9">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B103" s="9" t="s">
         <v>439</v>
       </c>
@@ -10948,7 +10950,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="104" spans="2:9">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B104" s="9" t="s">
         <v>443</v>
       </c>
@@ -10968,7 +10970,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="105" spans="2:9">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B105" s="9" t="s">
         <v>447</v>
       </c>
@@ -10988,7 +10990,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="106" spans="2:9">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B106" s="9" t="s">
         <v>451</v>
       </c>
@@ -11008,7 +11010,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="107" spans="2:9">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B107" s="9" t="s">
         <v>455</v>
       </c>
@@ -11028,7 +11030,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="108" spans="2:9">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B108" s="9" t="s">
         <v>459</v>
       </c>
@@ -11048,7 +11050,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="109" spans="2:9">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B109" s="9" t="s">
         <v>463</v>
       </c>
@@ -11068,7 +11070,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="110" spans="2:9">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B110" s="9" t="s">
         <v>467</v>
       </c>
@@ -11088,7 +11090,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="111" spans="2:9">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B111" s="9" t="s">
         <v>470</v>
       </c>
@@ -11108,7 +11110,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="112" spans="2:9">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B112" s="9" t="s">
         <v>473</v>
       </c>
@@ -11128,7 +11130,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="113" spans="2:9">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B113" s="9" t="s">
         <v>477</v>
       </c>
@@ -11148,7 +11150,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="114" spans="2:9">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B114" s="9" t="s">
         <v>481</v>
       </c>
@@ -11168,7 +11170,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="115" spans="2:9">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B115" s="9" t="s">
         <v>485</v>
       </c>
@@ -11188,7 +11190,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="116" spans="2:9">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B116" s="9" t="s">
         <v>489</v>
       </c>
@@ -11208,7 +11210,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="117" spans="2:9">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B117" s="9" t="s">
         <v>493</v>
       </c>
@@ -11228,7 +11230,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="118" spans="2:9">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B118" s="9" t="s">
         <v>497</v>
       </c>
@@ -11248,7 +11250,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="119" spans="2:9">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B119" s="9" t="s">
         <v>501</v>
       </c>
@@ -11268,7 +11270,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="120" spans="2:9">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B120" s="9" t="s">
         <v>505</v>
       </c>
@@ -11288,7 +11290,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="121" spans="2:9">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B121" s="9" t="s">
         <v>509</v>
       </c>
@@ -11302,7 +11304,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="122" spans="2:9">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B122" s="9" t="s">
         <v>512</v>
       </c>
@@ -11316,7 +11318,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="123" spans="2:9">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B123" s="9" t="s">
         <v>516</v>
       </c>
@@ -11330,7 +11332,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="124" spans="2:9">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B124" s="9" t="s">
         <v>518</v>
       </c>
@@ -11344,7 +11346,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="125" spans="2:9">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B125" s="9" t="s">
         <v>520</v>
       </c>
@@ -11358,7 +11360,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="126" spans="2:9">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B126" s="9" t="s">
         <v>522</v>
       </c>
@@ -11372,7 +11374,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="127" spans="2:9">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B127" s="9" t="s">
         <v>524</v>
       </c>
@@ -11386,7 +11388,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="128" spans="2:9">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B128" s="9" t="s">
         <v>526</v>
       </c>
@@ -11400,7 +11402,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B129" s="9" t="s">
         <v>528</v>
       </c>
@@ -11414,7 +11416,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B130" s="9" t="s">
         <v>530</v>
       </c>
@@ -11428,7 +11430,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="26.1">
+    <row r="131" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="B131" s="9" t="s">
         <v>532</v>
       </c>
@@ -11442,7 +11444,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="14.7" thickBot="1">
+    <row r="132" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H132" s="9" t="s">
         <v>231</v>
       </c>
@@ -11450,7 +11452,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="14.7" thickBot="1">
+    <row r="133" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="16" t="s">
         <v>77</v>
       </c>
@@ -11463,11 +11465,11 @@
         <v>236</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="14.7" thickBot="1">
-      <c r="B134" s="187" t="s">
+    <row r="134" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="188" t="s">
         <v>534</v>
       </c>
-      <c r="C134" s="188"/>
+      <c r="C134" s="189"/>
       <c r="H134" s="9" t="s">
         <v>239</v>
       </c>
@@ -11475,7 +11477,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B135" s="17" t="s">
         <v>79</v>
       </c>
@@ -11489,7 +11491,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B136" s="19" t="s">
         <v>46</v>
       </c>
@@ -11503,7 +11505,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B137" s="19" t="s">
         <v>86</v>
       </c>
@@ -11517,7 +11519,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="H138" s="9" t="s">
@@ -11527,7 +11529,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="H139" s="9" t="s">
@@ -11537,7 +11539,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="14.7" thickBot="1">
+    <row r="140" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="H140" s="9" t="s">
@@ -11547,11 +11549,11 @@
         <v>264</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="14.7" thickBot="1">
-      <c r="B141" s="189" t="s">
+    <row r="141" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="190" t="s">
         <v>537</v>
       </c>
-      <c r="C141" s="190"/>
+      <c r="C141" s="191"/>
       <c r="H141" s="9" t="s">
         <v>267</v>
       </c>
@@ -11559,7 +11561,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B142" s="17" t="s">
         <v>79</v>
       </c>
@@ -11573,7 +11575,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B143" s="19" t="s">
         <v>538</v>
       </c>
@@ -11587,7 +11589,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B144" s="19" t="s">
         <v>540</v>
       </c>
@@ -11601,7 +11603,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B145" s="19" t="s">
         <v>542</v>
       </c>
@@ -11615,7 +11617,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B146" s="19" t="s">
         <v>544</v>
       </c>
@@ -11629,7 +11631,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B147" s="19" t="s">
         <v>546</v>
       </c>
@@ -11643,7 +11645,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="H148" s="9" t="s">
@@ -11653,7 +11655,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="14.7" thickBot="1">
+    <row r="149" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="H149" s="9" t="s">
@@ -11663,11 +11665,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="14.7" thickBot="1">
-      <c r="B150" s="191" t="s">
+    <row r="150" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="192" t="s">
         <v>548</v>
       </c>
-      <c r="C150" s="192"/>
+      <c r="C150" s="193"/>
       <c r="H150" s="9" t="s">
         <v>303</v>
       </c>
@@ -11675,7 +11677,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B151" s="20" t="s">
         <v>79</v>
       </c>
@@ -11689,7 +11691,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B152" s="19" t="s">
         <v>46</v>
       </c>
@@ -11703,7 +11705,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B153" s="19" t="s">
         <v>86</v>
       </c>
@@ -11717,7 +11719,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B154" s="19" t="s">
         <v>90</v>
       </c>
@@ -11731,7 +11733,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B155" s="19" t="s">
         <v>94</v>
       </c>
@@ -11745,7 +11747,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B156" s="19" t="s">
         <v>98</v>
       </c>
@@ -11759,7 +11761,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B157" s="19" t="s">
         <v>102</v>
       </c>
@@ -11773,7 +11775,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B158" s="19" t="s">
         <v>106</v>
       </c>
@@ -11787,7 +11789,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="14.7" thickBot="1">
+    <row r="159" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B159" s="13"/>
       <c r="C159" s="14"/>
       <c r="H159" s="9" t="s">
@@ -11797,14 +11799,14 @@
         <v>340</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="14.7" thickBot="1">
+    <row r="160" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="B160" s="185" t="s">
+      <c r="B160" s="186" t="s">
         <v>556</v>
       </c>
-      <c r="C160" s="186"/>
+      <c r="C160" s="187"/>
       <c r="H160" s="9" t="s">
         <v>343</v>
       </c>
@@ -11812,7 +11814,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="161" spans="2:9" ht="14.7" thickBot="1">
+    <row r="161" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B161" s="3"/>
       <c r="C161" s="4"/>
       <c r="H161" s="9" t="s">
@@ -11822,7 +11824,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="162" spans="2:9" ht="14.7" thickBot="1">
+    <row r="162" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B162" s="21" t="s">
         <v>557</v>
       </c>
@@ -11836,7 +11838,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="163" spans="2:9">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B163" s="23">
         <v>1</v>
       </c>
@@ -11850,7 +11852,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="164" spans="2:9">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B164" s="25">
         <v>2</v>
       </c>
@@ -11864,7 +11866,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="165" spans="2:9">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B165" s="25">
         <v>3</v>
       </c>
@@ -11878,7 +11880,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="166" spans="2:9">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B166" s="25">
         <v>4</v>
       </c>
@@ -11892,7 +11894,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="167" spans="2:9">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B167" s="25">
         <v>5</v>
       </c>
@@ -11906,7 +11908,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="168" spans="2:9">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B168" s="25">
         <v>6</v>
       </c>
@@ -11920,7 +11922,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="169" spans="2:9">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B169" s="25">
         <v>7</v>
       </c>
@@ -11934,7 +11936,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="170" spans="2:9">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B170" s="25">
         <v>8</v>
       </c>
@@ -11948,7 +11950,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="171" spans="2:9">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B171" s="25">
         <v>9</v>
       </c>
@@ -11962,7 +11964,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="172" spans="2:9">
+    <row r="172" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B172" s="25">
         <v>10</v>
       </c>
@@ -11976,7 +11978,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="173" spans="2:9">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B173" s="25">
         <v>11</v>
       </c>
@@ -11990,7 +11992,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="174" spans="2:9">
+    <row r="174" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B174" s="25">
         <v>12</v>
       </c>
@@ -12004,7 +12006,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="175" spans="2:9">
+    <row r="175" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B175" s="25">
         <v>13</v>
       </c>
@@ -12018,7 +12020,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="176" spans="2:9">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B176" s="25">
         <v>14</v>
       </c>
@@ -12032,7 +12034,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="177" spans="2:9">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B177" s="25">
         <v>15</v>
       </c>
@@ -12046,7 +12048,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="178" spans="2:9">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B178" s="25">
         <v>16</v>
       </c>
@@ -12060,7 +12062,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="179" spans="2:9">
+    <row r="179" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B179" s="27">
         <v>17</v>
       </c>
@@ -12074,7 +12076,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="180" spans="2:9">
+    <row r="180" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B180" s="27">
         <v>18</v>
       </c>
@@ -12088,7 +12090,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="181" spans="2:9">
+    <row r="181" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B181" s="27">
         <v>19</v>
       </c>
@@ -12102,7 +12104,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="182" spans="2:9">
+    <row r="182" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B182" s="27">
         <v>20</v>
       </c>
@@ -12116,7 +12118,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="183" spans="2:9">
+    <row r="183" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B183" s="27">
         <v>21</v>
       </c>
@@ -12130,7 +12132,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="184" spans="2:9">
+    <row r="184" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B184" s="27">
         <v>22</v>
       </c>
@@ -12144,7 +12146,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="185" spans="2:9">
+    <row r="185" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B185" s="27">
         <v>23</v>
       </c>
@@ -12158,7 +12160,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="186" spans="2:9" ht="14.7" thickBot="1">
+    <row r="186" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B186" s="29"/>
       <c r="C186" s="30"/>
       <c r="H186" s="9" t="s">
@@ -12168,7 +12170,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="187" spans="2:9" ht="14.7" thickBot="1">
+    <row r="187" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B187" s="13"/>
       <c r="C187" s="14"/>
       <c r="H187" s="9" t="s">
@@ -12178,11 +12180,11 @@
         <v>450</v>
       </c>
     </row>
-    <row r="188" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B188" s="193" t="s">
+    <row r="188" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="194" t="s">
         <v>582</v>
       </c>
-      <c r="C188" s="194"/>
+      <c r="C188" s="195"/>
       <c r="H188" s="9" t="s">
         <v>453</v>
       </c>
@@ -12190,7 +12192,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="189" spans="2:9" ht="14.7" thickBot="1">
+    <row r="189" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B189" s="31" t="s">
         <v>79</v>
       </c>
@@ -12204,7 +12206,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="190" spans="2:9" ht="14.7" thickBot="1">
+    <row r="190" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B190" s="33" t="s">
         <v>46</v>
       </c>
@@ -12218,7 +12220,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="191" spans="2:9" ht="14.7" thickBot="1">
+    <row r="191" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B191" s="35" t="s">
         <v>86</v>
       </c>
@@ -12232,7 +12234,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="192" spans="2:9" ht="14.7" thickBot="1">
+    <row r="192" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B192" s="37" t="s">
         <v>90</v>
       </c>
@@ -12246,7 +12248,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="193" spans="2:9" ht="14.7" thickBot="1">
+    <row r="193" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B193" s="37" t="s">
         <v>94</v>
       </c>
@@ -12260,7 +12262,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="194" spans="2:9" ht="14.7" thickBot="1">
+    <row r="194" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B194" s="37" t="s">
         <v>98</v>
       </c>
@@ -12274,7 +12276,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="195" spans="2:9" ht="14.7" thickBot="1">
+    <row r="195" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B195" s="37" t="s">
         <v>102</v>
       </c>
@@ -12288,7 +12290,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="196" spans="2:9" ht="14.7" thickBot="1">
+    <row r="196" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B196" s="37" t="s">
         <v>106</v>
       </c>
@@ -12302,7 +12304,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="197" spans="2:9" ht="14.7" thickBot="1">
+    <row r="197" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B197" s="37" t="s">
         <v>110</v>
       </c>
@@ -12316,7 +12318,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="198" spans="2:9" ht="14.7" thickBot="1">
+    <row r="198" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B198" s="37" t="s">
         <v>114</v>
       </c>
@@ -12330,7 +12332,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="199" spans="2:9" ht="14.7" thickBot="1">
+    <row r="199" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B199" s="37" t="s">
         <v>118</v>
       </c>
@@ -12344,7 +12346,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="200" spans="2:9" ht="14.7" thickBot="1">
+    <row r="200" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B200" s="37" t="s">
         <v>122</v>
       </c>
@@ -12358,7 +12360,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="201" spans="2:9" ht="14.7" thickBot="1">
+    <row r="201" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B201" s="37" t="s">
         <v>126</v>
       </c>
@@ -12372,7 +12374,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="202" spans="2:9" ht="14.7" thickBot="1">
+    <row r="202" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B202" s="37" t="s">
         <v>130</v>
       </c>
@@ -12386,7 +12388,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="203" spans="2:9" ht="14.7" thickBot="1">
+    <row r="203" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B203" s="37" t="s">
         <v>134</v>
       </c>
@@ -12400,7 +12402,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="204" spans="2:9" ht="14.7" thickBot="1">
+    <row r="204" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B204" s="37" t="s">
         <v>138</v>
       </c>
@@ -12414,7 +12416,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="205" spans="2:9" ht="14.7" thickBot="1">
+    <row r="205" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B205" s="37" t="s">
         <v>142</v>
       </c>
@@ -12428,7 +12430,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="206" spans="2:9" ht="14.7" thickBot="1">
+    <row r="206" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B206" s="37" t="s">
         <v>146</v>
       </c>
@@ -12442,7 +12444,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="207" spans="2:9" ht="14.7" thickBot="1">
+    <row r="207" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B207" s="37" t="s">
         <v>150</v>
       </c>
@@ -12456,7 +12458,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="208" spans="2:9" ht="14.7" thickBot="1">
+    <row r="208" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B208" s="37" t="s">
         <v>154</v>
       </c>
@@ -12470,7 +12472,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="209" spans="2:9" ht="14.7" thickBot="1">
+    <row r="209" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B209" s="37" t="s">
         <v>158</v>
       </c>
@@ -12484,7 +12486,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="210" spans="2:9" ht="14.7" thickBot="1">
+    <row r="210" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B210" s="37" t="s">
         <v>162</v>
       </c>
@@ -12498,7 +12500,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="211" spans="2:9" ht="14.7" thickBot="1">
+    <row r="211" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B211" s="37" t="s">
         <v>166</v>
       </c>
@@ -12512,7 +12514,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="212" spans="2:9" ht="14.7" thickBot="1">
+    <row r="212" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B212" s="37" t="s">
         <v>170</v>
       </c>
@@ -12526,7 +12528,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="213" spans="2:9" ht="14.7" thickBot="1">
+    <row r="213" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B213" s="37" t="s">
         <v>174</v>
       </c>
@@ -12540,7 +12542,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="214" spans="2:9" ht="14.7" thickBot="1">
+    <row r="214" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B214" s="37" t="s">
         <v>178</v>
       </c>
@@ -12554,7 +12556,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="215" spans="2:9" ht="14.7" thickBot="1">
+    <row r="215" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B215" s="37" t="s">
         <v>182</v>
       </c>
@@ -12568,7 +12570,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="216" spans="2:9" ht="14.7" thickBot="1">
+    <row r="216" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B216" s="37" t="s">
         <v>186</v>
       </c>
@@ -12582,7 +12584,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="217" spans="2:9" ht="14.7" thickBot="1">
+    <row r="217" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B217" s="37" t="s">
         <v>190</v>
       </c>
@@ -12596,7 +12598,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="218" spans="2:9" ht="14.7" thickBot="1">
+    <row r="218" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B218" s="37" t="s">
         <v>194</v>
       </c>
@@ -12610,7 +12612,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="219" spans="2:9" ht="14.7" thickBot="1">
+    <row r="219" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B219" s="37" t="s">
         <v>196</v>
       </c>
@@ -12624,7 +12626,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="220" spans="2:9" ht="14.7" thickBot="1">
+    <row r="220" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B220" s="37" t="s">
         <v>198</v>
       </c>
@@ -12638,7 +12640,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="221" spans="2:9" ht="14.7" thickBot="1">
+    <row r="221" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B221" s="37" t="s">
         <v>200</v>
       </c>
@@ -12652,7 +12654,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="222" spans="2:9" ht="14.7" thickBot="1">
+    <row r="222" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B222" s="37" t="s">
         <v>202</v>
       </c>
@@ -12666,7 +12668,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="223" spans="2:9" ht="14.7" thickBot="1">
+    <row r="223" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B223" s="37" t="s">
         <v>204</v>
       </c>
@@ -12680,7 +12682,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="224" spans="2:9" ht="14.7" thickBot="1">
+    <row r="224" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B224" s="37" t="s">
         <v>206</v>
       </c>
@@ -12694,7 +12696,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="14.7" thickBot="1">
+    <row r="225" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B225" s="39" t="s">
         <v>656</v>
       </c>
@@ -12708,7 +12710,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="14.7" thickBot="1">
+    <row r="226" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B226" s="13"/>
       <c r="C226" s="14"/>
       <c r="H226" s="9" t="s">
@@ -12718,14 +12720,14 @@
         <v>661</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="14.7" thickBot="1">
+    <row r="227" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A227" s="16" t="s">
         <v>662</v>
       </c>
-      <c r="B227" s="187" t="s">
+      <c r="B227" s="188" t="s">
         <v>663</v>
       </c>
-      <c r="C227" s="188"/>
+      <c r="C227" s="189"/>
       <c r="H227" s="9" t="s">
         <v>664</v>
       </c>
@@ -12733,7 +12735,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="28.5">
+    <row r="228" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B228" s="41" t="s">
         <v>79</v>
       </c>
@@ -12747,7 +12749,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B229" s="43" t="s">
         <v>46</v>
       </c>
@@ -12761,7 +12763,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B230" s="43" t="s">
         <v>86</v>
       </c>
@@ -12775,7 +12777,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B231" s="43" t="s">
         <v>90</v>
       </c>
@@ -12789,7 +12791,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
       <c r="H232" s="9" t="s">
@@ -12799,7 +12801,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="14.7" thickBot="1">
+    <row r="233" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
       <c r="H233" s="9" t="s">
@@ -12809,14 +12811,14 @@
         <v>680</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="14.7" thickBot="1">
+    <row r="234" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A234" s="16" t="s">
         <v>681</v>
       </c>
-      <c r="B234" s="189" t="s">
+      <c r="B234" s="190" t="s">
         <v>682</v>
       </c>
-      <c r="C234" s="190"/>
+      <c r="C234" s="191"/>
       <c r="H234" s="9" t="s">
         <v>683</v>
       </c>
@@ -12824,7 +12826,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="28.5">
+    <row r="235" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B235" s="41" t="s">
         <v>79</v>
       </c>
@@ -12838,7 +12840,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="16.5" customHeight="1">
+    <row r="236" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B236" s="43" t="s">
         <v>687</v>
       </c>
@@ -12852,7 +12854,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B237" s="43" t="s">
         <v>691</v>
       </c>
@@ -12866,7 +12868,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B238" s="43" t="s">
         <v>695</v>
       </c>
@@ -12880,7 +12882,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B239" s="43" t="s">
         <v>699</v>
       </c>
@@ -12894,7 +12896,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B240" s="43" t="s">
         <v>703</v>
       </c>
@@ -12908,7 +12910,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B241" s="43" t="s">
         <v>707</v>
       </c>
@@ -12922,7 +12924,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B242" s="43" t="s">
         <v>711</v>
       </c>
@@ -12936,7 +12938,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B243" s="47"/>
       <c r="C243" s="48"/>
       <c r="H243" s="9" t="s">
@@ -12946,7 +12948,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="14.7" thickBot="1">
+    <row r="244" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B244" s="47"/>
       <c r="C244" s="48"/>
       <c r="H244" s="9" t="s">
@@ -12956,14 +12958,14 @@
         <v>718</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="14.7" thickBot="1">
+    <row r="245" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A245" s="16" t="s">
         <v>719</v>
       </c>
-      <c r="B245" s="191" t="s">
+      <c r="B245" s="192" t="s">
         <v>720</v>
       </c>
-      <c r="C245" s="192"/>
+      <c r="C245" s="193"/>
       <c r="H245" s="9" t="s">
         <v>721</v>
       </c>
@@ -12971,7 +12973,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="28.2">
+    <row r="246" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B246" s="49" t="s">
         <v>79</v>
       </c>
@@ -12985,7 +12987,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B247" s="43" t="s">
         <v>46</v>
       </c>
@@ -12999,7 +13001,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B248" s="43" t="s">
         <v>86</v>
       </c>
@@ -13013,7 +13015,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B249" s="43" t="s">
         <v>90</v>
       </c>
@@ -13027,7 +13029,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B250" s="43" t="s">
         <v>94</v>
       </c>
@@ -13041,7 +13043,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B251" s="43" t="s">
         <v>98</v>
       </c>
@@ -13055,7 +13057,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B252" s="13"/>
       <c r="C252" s="14"/>
       <c r="H252" s="9" t="s">
@@ -13065,7 +13067,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="18.600000000000001" thickBot="1">
+    <row r="253" spans="1:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B253" s="50"/>
       <c r="C253" s="50"/>
       <c r="D253" s="50"/>
@@ -13078,21 +13080,21 @@
         <v>743</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="14.7" thickBot="1">
+    <row r="254" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="B254" s="185" t="s">
+      <c r="B254" s="186" t="s">
         <v>745</v>
       </c>
-      <c r="C254" s="186"/>
+      <c r="C254" s="187"/>
       <c r="D254" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="E254" s="183" t="s">
+      <c r="E254" s="184" t="s">
         <v>747</v>
       </c>
-      <c r="F254" s="184"/>
+      <c r="F254" s="185"/>
       <c r="H254" s="9" t="s">
         <v>748</v>
       </c>
@@ -13100,7 +13102,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B255" s="3"/>
       <c r="C255" s="4"/>
       <c r="H255" s="9" t="s">
@@ -13110,7 +13112,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B256" s="5" t="s">
         <v>79</v>
       </c>
@@ -13130,7 +13132,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="257" spans="2:9">
+    <row r="257" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B257" s="51" t="s">
         <v>46</v>
       </c>
@@ -13150,7 +13152,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="258" spans="2:9">
+    <row r="258" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B258" s="51" t="s">
         <v>86</v>
       </c>
@@ -13170,7 +13172,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="259" spans="2:9" ht="28.8">
+    <row r="259" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B259" s="51" t="s">
         <v>90</v>
       </c>
@@ -13190,7 +13192,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="260" spans="2:9" ht="28.8">
+    <row r="260" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B260" s="51" t="s">
         <v>94</v>
       </c>
@@ -13210,7 +13212,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="261" spans="2:9">
+    <row r="261" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B261" s="51" t="s">
         <v>98</v>
       </c>
@@ -13230,7 +13232,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="262" spans="2:9">
+    <row r="262" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B262" s="51" t="s">
         <v>102</v>
       </c>
@@ -13250,7 +13252,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="263" spans="2:9">
+    <row r="263" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B263" s="54" t="s">
         <v>106</v>
       </c>
@@ -13270,7 +13272,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="264" spans="2:9" ht="28.8">
+    <row r="264" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B264" s="51" t="s">
         <v>110</v>
       </c>
@@ -13290,7 +13292,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="265" spans="2:9">
+    <row r="265" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B265" s="51" t="s">
         <v>114</v>
       </c>
@@ -13310,7 +13312,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="266" spans="2:9">
+    <row r="266" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B266" s="51" t="s">
         <v>118</v>
       </c>
@@ -13330,7 +13332,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="267" spans="2:9">
+    <row r="267" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B267" s="51" t="s">
         <v>122</v>
       </c>
@@ -13350,7 +13352,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="268" spans="2:9" ht="28.8">
+    <row r="268" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B268" s="51" t="s">
         <v>126</v>
       </c>
@@ -13370,7 +13372,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="269" spans="2:9">
+    <row r="269" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B269" s="51" t="s">
         <v>130</v>
       </c>
@@ -13390,7 +13392,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="270" spans="2:9" ht="28.8">
+    <row r="270" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B270" s="51" t="s">
         <v>134</v>
       </c>
@@ -13410,7 +13412,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="271" spans="2:9">
+    <row r="271" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B271" s="58" t="s">
         <v>138</v>
       </c>
@@ -13430,7 +13432,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="272" spans="2:9" ht="43.2">
+    <row r="272" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B272" s="51" t="s">
         <v>142</v>
       </c>
@@ -13450,7 +13452,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="273" spans="2:9" ht="28.8">
+    <row r="273" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B273" s="51" t="s">
         <v>146</v>
       </c>
@@ -13466,7 +13468,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="274" spans="2:9">
+    <row r="274" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B274" s="51" t="s">
         <v>150</v>
       </c>
@@ -13482,7 +13484,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="275" spans="2:9">
+    <row r="275" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B275" s="51" t="s">
         <v>154</v>
       </c>
@@ -13498,7 +13500,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="276" spans="2:9">
+    <row r="276" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B276" s="63" t="s">
         <v>158</v>
       </c>
@@ -13514,7 +13516,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="277" spans="2:9">
+    <row r="277" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B277" s="51" t="s">
         <v>162</v>
       </c>
@@ -13530,7 +13532,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="278" spans="2:9">
+    <row r="278" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B278" s="51" t="s">
         <v>166</v>
       </c>
@@ -13546,7 +13548,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="279" spans="2:9" ht="43.2">
+    <row r="279" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B279" s="51" t="s">
         <v>170</v>
       </c>
@@ -13562,7 +13564,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="280" spans="2:9" ht="18.3">
+    <row r="280" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B280" s="51" t="s">
         <v>174</v>
       </c>
@@ -13578,7 +13580,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="281" spans="2:9">
+    <row r="281" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B281" s="51" t="s">
         <v>178</v>
       </c>
@@ -13594,7 +13596,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="282" spans="2:9">
+    <row r="282" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B282" s="67" t="s">
         <v>182</v>
       </c>
@@ -13610,7 +13612,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="283" spans="2:9">
+    <row r="283" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B283" s="51" t="s">
         <v>186</v>
       </c>
@@ -13626,7 +13628,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="284" spans="2:9" ht="18.3">
+    <row r="284" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B284" s="51" t="s">
         <v>190</v>
       </c>
@@ -13642,7 +13644,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="285" spans="2:9">
+    <row r="285" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B285" s="51" t="s">
         <v>194</v>
       </c>
@@ -13658,7 +13660,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="286" spans="2:9">
+    <row r="286" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B286" s="69" t="s">
         <v>196</v>
       </c>
@@ -13674,7 +13676,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="287" spans="2:9">
+    <row r="287" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B287" s="51" t="s">
         <v>198</v>
       </c>
@@ -13690,7 +13692,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="288" spans="2:9" ht="29.7">
+    <row r="288" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B288" s="51" t="s">
         <v>200</v>
       </c>
@@ -13706,7 +13708,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="289" spans="2:6">
+    <row r="289" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B289" s="51" t="s">
         <v>202</v>
       </c>
@@ -13715,7 +13717,7 @@
       </c>
       <c r="E289" s="4"/>
     </row>
-    <row r="290" spans="2:6" ht="29.7">
+    <row r="290" spans="2:6" ht="33" x14ac:dyDescent="0.25">
       <c r="B290" s="71" t="s">
         <v>204</v>
       </c>
@@ -13725,7 +13727,7 @@
       <c r="E290" s="66"/>
       <c r="F290" s="65"/>
     </row>
-    <row r="291" spans="2:6">
+    <row r="291" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B291" s="51" t="s">
         <v>206</v>
       </c>
@@ -13735,7 +13737,7 @@
       <c r="E291" s="4"/>
       <c r="F291" s="62"/>
     </row>
-    <row r="292" spans="2:6">
+    <row r="292" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B292" s="51" t="s">
         <v>208</v>
       </c>
@@ -13745,7 +13747,7 @@
       <c r="E292" s="4"/>
       <c r="F292" s="62"/>
     </row>
-    <row r="293" spans="2:6">
+    <row r="293" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B293" s="51" t="s">
         <v>210</v>
       </c>
@@ -13753,7 +13755,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="294" spans="2:6">
+    <row r="294" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B294" s="51" t="s">
         <v>887</v>
       </c>
@@ -13761,7 +13763,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="295" spans="2:6" ht="28.8">
+    <row r="295" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B295" s="67" t="s">
         <v>889</v>
       </c>
@@ -13769,7 +13771,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="296" spans="2:6">
+    <row r="296" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B296" s="51" t="s">
         <v>891</v>
       </c>
@@ -13777,7 +13779,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="297" spans="2:6">
+    <row r="297" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B297" s="51" t="s">
         <v>893</v>
       </c>
@@ -13785,7 +13787,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="298" spans="2:6">
+    <row r="298" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B298" s="51" t="s">
         <v>895</v>
       </c>
@@ -13793,7 +13795,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="299" spans="2:6">
+    <row r="299" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B299" s="51" t="s">
         <v>897</v>
       </c>
@@ -13801,7 +13803,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="300" spans="2:6">
+    <row r="300" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B300" s="58" t="s">
         <v>899</v>
       </c>
@@ -13809,7 +13811,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="301" spans="2:6">
+    <row r="301" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B301" s="51" t="s">
         <v>901</v>
       </c>
@@ -13817,7 +13819,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="302" spans="2:6">
+    <row r="302" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B302" s="51" t="s">
         <v>903</v>
       </c>
@@ -13825,7 +13827,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="303" spans="2:6">
+    <row r="303" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B303" s="51" t="s">
         <v>905</v>
       </c>
@@ -13833,7 +13835,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="304" spans="2:6">
+    <row r="304" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B304" s="51" t="s">
         <v>907</v>
       </c>
@@ -13841,7 +13843,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B305" s="52" t="s">
         <v>755</v>
       </c>
@@ -13849,7 +13851,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B306" s="73" t="s">
         <v>760</v>
       </c>
@@ -13857,7 +13859,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="74"/>
       <c r="B307" s="52" t="s">
         <v>765</v>
@@ -13866,7 +13868,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B308" s="52" t="s">
         <v>770</v>
       </c>
@@ -13874,7 +13876,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B309" s="52" t="s">
         <v>775</v>
       </c>
@@ -13882,7 +13884,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B310" s="52" t="s">
         <v>780</v>
       </c>
@@ -13890,7 +13892,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B311" s="52" t="s">
         <v>785</v>
       </c>
@@ -13898,7 +13900,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B312" s="52" t="s">
         <v>790</v>
       </c>
@@ -13906,7 +13908,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B313" s="52" t="s">
         <v>795</v>
       </c>
@@ -13914,7 +13916,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B314" s="52" t="s">
         <v>800</v>
       </c>
@@ -13922,7 +13924,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B315" s="52" t="s">
         <v>805</v>
       </c>
@@ -13930,7 +13932,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B316" s="56" t="s">
         <v>810</v>
       </c>
@@ -13938,7 +13940,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B317" s="56" t="s">
         <v>815</v>
       </c>
@@ -13946,7 +13948,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B318" s="56" t="s">
         <v>820</v>
       </c>
@@ -13954,7 +13956,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B319" s="60" t="s">
         <v>825</v>
       </c>
@@ -13962,7 +13964,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B320" s="60" t="s">
         <v>830</v>
       </c>
@@ -13970,12 +13972,12 @@
         <v>831</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B321" s="75"/>
       <c r="C321" s="76"/>
     </row>
-    <row r="322" spans="1:4" ht="14.7" thickBot="1"/>
-    <row r="323" spans="1:4" ht="14.7" thickBot="1">
+    <row r="322" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="323" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B323" s="77" t="s">
         <v>557</v>
       </c>
@@ -13983,7 +13985,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="14.7" thickBot="1">
+    <row r="324" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A324" s="16" t="s">
         <v>909</v>
       </c>
@@ -13997,7 +13999,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="39">
+    <row r="325" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="B325" s="79" t="s">
         <v>691</v>
       </c>
@@ -14008,7 +14010,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B326" s="79" t="s">
         <v>695</v>
       </c>
@@ -14019,7 +14021,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="39">
+    <row r="327" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="B327" s="79" t="s">
         <v>699</v>
       </c>
@@ -14030,7 +14032,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B328" s="79" t="s">
         <v>703</v>
       </c>
@@ -14041,7 +14043,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="39.299999999999997" thickBot="1">
+    <row r="329" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B329" s="83" t="s">
         <v>707</v>
       </c>
@@ -14052,7 +14054,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="26.4" thickBot="1">
+    <row r="330" spans="1:4" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B330" s="85">
         <v>7</v>
       </c>
@@ -14063,7 +14065,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="29.1" thickBot="1">
+    <row r="331" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B331" s="88" t="s">
         <v>924</v>
       </c>
@@ -14074,7 +14076,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="14.7" thickBot="1">
+    <row r="332" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B332" s="91" t="s">
         <v>927</v>
       </c>
@@ -14085,7 +14087,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="14.7" thickBot="1">
+    <row r="333" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B333" s="88" t="s">
         <v>930</v>
       </c>
@@ -14096,7 +14098,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="26.4" thickBot="1">
+    <row r="334" spans="1:4" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B334" s="47"/>
       <c r="C334" s="48"/>
       <c r="D334" s="96" t="s">
@@ -14104,6 +14106,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="12">
     <mergeCell ref="E254:F254"/>
     <mergeCell ref="B1:C1"/>
@@ -14129,14 +14132,14 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.68359375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.20703125" customWidth="1"/>
-    <col min="3" max="3" width="18.1015625" customWidth="1"/>
-    <col min="4" max="4" width="18.5234375" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="117" customFormat="1" ht="40.5" customHeight="1">
+    <row r="1" spans="1:41" s="117" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="110" t="s">
         <v>47</v>
       </c>
@@ -14262,6 +14265,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14270,11 +14274,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1231CFC-38C7-48BB-8B12-F82535EA1387}">
   <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7890625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="40.5" customHeight="1">
+    <row r="1" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="106" t="s">
         <v>945</v>
       </c>
@@ -14343,6 +14347,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>